--- a/partialResults.xlsx
+++ b/partialResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1burg\Desktop\AIAssignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F25092F-B075-47CE-92F7-979580B688EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B96BD5D-1690-459E-992F-A88C3B40BDDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>====================================================================================================================================================</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>INIT_STATE_#3:</t>
+  </si>
+  <si>
+    <t>INIT_STATE_#4:</t>
+  </si>
+  <si>
+    <t>INIT_STATE_#5:</t>
   </si>
 </sst>
 </file>
@@ -935,17 +941,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,7 +1044,7 @@
         <v>438787</v>
       </c>
       <c r="F8">
-        <v>2.76</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1059,7 +1070,7 @@
         <v>21827</v>
       </c>
       <c r="F9">
-        <v>0.36599999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1082,10 +1093,10 @@
         <v>1036353</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1111,7 +1122,7 @@
         <v>22312</v>
       </c>
       <c r="F11">
-        <v>81.364998</v>
+        <v>92.957999999999998</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1137,7 +1148,7 @@
         <v>2938</v>
       </c>
       <c r="F12">
-        <v>0.59</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1257,7 +1268,7 @@
         <v>2053</v>
       </c>
       <c r="F21">
-        <v>8.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1306,10 +1317,10 @@
         <v>5719</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1335,7 +1346,7 @@
         <v>768</v>
       </c>
       <c r="F24">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1393,6 +1404,350 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>567408321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>181357</v>
+      </c>
+      <c r="E34">
+        <v>24979</v>
+      </c>
+      <c r="F34">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>181377</v>
+      </c>
+      <c r="E35">
+        <v>25060</v>
+      </c>
+      <c r="F35">
+        <v>249.753998</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>108652</v>
+      </c>
+      <c r="E36">
+        <v>26049</v>
+      </c>
+      <c r="F36">
+        <v>161.56500199999999</v>
+      </c>
+      <c r="G36">
+        <v>353</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1642</v>
+      </c>
+      <c r="E37">
+        <v>920</v>
+      </c>
+      <c r="F37">
+        <v>0.06</v>
+      </c>
+      <c r="G37">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>463508721</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>178437</v>
+      </c>
+      <c r="E45">
+        <v>24979</v>
+      </c>
+      <c r="F45">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>179608</v>
+      </c>
+      <c r="E46">
+        <v>25060</v>
+      </c>
+      <c r="F46">
+        <v>209.55299400000001</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>68169</v>
+      </c>
+      <c r="E47">
+        <v>21799</v>
+      </c>
+      <c r="F47">
+        <v>70.128997999999996</v>
+      </c>
+      <c r="G47">
+        <v>162</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>3459</v>
+      </c>
+      <c r="E48">
+        <v>1972</v>
+      </c>
+      <c r="F48">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G48">
+        <v>69</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
     </row>

--- a/partialResults.xlsx
+++ b/partialResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1burg\Desktop\AIAssignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B96BD5D-1690-459E-992F-A88C3B40BDDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E1AF34-6C8D-4E6B-AA93-6047A8BCF466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,56 +20,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
   <si>
     <t>====================================================================================================================================================</t>
   </si>
   <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>ALGORITHMS</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>EXPERIMENT</t>
   </si>
   <si>
+    <t>INIT_STATE_#1:</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>STATE:</t>
+  </si>
+  <si>
+    <t>ALGORITHM</t>
+  </si>
+  <si>
+    <t>PATH_LENGTH</t>
+  </si>
+  <si>
+    <t>STATE_EXPANSIONS</t>
+  </si>
+  <si>
+    <t>MAX_QLENGTH</t>
+  </si>
+  <si>
+    <t>RUNNING_TIME</t>
+  </si>
+  <si>
+    <t>DELETIONS_MIDDLE_HEAP</t>
+  </si>
+  <si>
+    <t>ATTEMPTED_REEXPANSIONS</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>breadth_first_search_vlist</t>
+  </si>
+  <si>
+    <t>*----</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SOLUTION</t>
+  </si>
+  <si>
+    <t>found.</t>
+  </si>
+  <si>
+    <t>(Q</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>empty!)</t>
+  </si>
+  <si>
+    <t>----*</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>exception:</t>
+  </si>
+  <si>
+    <t>vector::_M_range_check:</t>
+  </si>
+  <si>
+    <t>__n</t>
+  </si>
+  <si>
+    <t>(which</t>
+  </si>
+  <si>
+    <t>0)</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>this-&gt;size()</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
     <t>INIT_STATE_#2:</t>
   </si>
   <si>
-    <t>GOAL</t>
-  </si>
-  <si>
-    <t>STATE:</t>
-  </si>
-  <si>
-    <t>ALGORITHM</t>
-  </si>
-  <si>
-    <t>PATH_LENGTH</t>
-  </si>
-  <si>
-    <t>STATE_EXPANSIONS</t>
-  </si>
-  <si>
-    <t>MAX_QLENGTH</t>
-  </si>
-  <si>
-    <t>RUNNING_TIME</t>
-  </si>
-  <si>
-    <t>DELETIONS_MIDDLE_HEAP</t>
-  </si>
-  <si>
-    <t>ATTEMPTED_REEXPANSIONS</t>
-  </si>
-  <si>
     <t>1)</t>
   </si>
   <si>
     <t>breadth_first_search</t>
   </si>
   <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>breadth_first_search_vlist</t>
-  </si>
-  <si>
     <t>3)</t>
   </si>
   <si>
@@ -86,9 +149,6 @@
   </si>
   <si>
     <t>astar_explist_misplacedtiles</t>
-  </si>
-  <si>
-    <t>6)</t>
   </si>
   <si>
     <t>astar_explist_manhattan</t>
@@ -941,17 +1001,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -959,621 +1019,490 @@
     <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>42158367</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>181441</v>
+      </c>
+      <c r="D14">
+        <v>24050</v>
+      </c>
+      <c r="E14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>181439</v>
+      </c>
+      <c r="D19">
+        <v>24145</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>181439</v>
+      </c>
+      <c r="D24">
+        <v>24067</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>181433</v>
+      </c>
+      <c r="D29">
+        <v>18978</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>364058271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>123804765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>650069</v>
-      </c>
-      <c r="E8">
-        <v>438787</v>
-      </c>
-      <c r="F8">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>74833</v>
-      </c>
-      <c r="E9">
-        <v>21827</v>
-      </c>
-      <c r="F9">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>1036353</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>1.7609999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>76391</v>
-      </c>
-      <c r="E11">
-        <v>22312</v>
-      </c>
-      <c r="F11">
-        <v>92.957999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>4926</v>
-      </c>
-      <c r="E12">
-        <v>2938</v>
-      </c>
-      <c r="F12">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>184</v>
-      </c>
-      <c r="E13">
-        <v>125</v>
-      </c>
-      <c r="F13">
-        <v>2E-3</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>281463075</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>123804765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>3012</v>
-      </c>
-      <c r="E21">
-        <v>2053</v>
-      </c>
-      <c r="F21">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>1681</v>
-      </c>
-      <c r="E22">
-        <v>965</v>
-      </c>
-      <c r="F22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>5719</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>1140</v>
-      </c>
-      <c r="E24">
-        <v>768</v>
-      </c>
-      <c r="F24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>72</v>
-      </c>
-      <c r="F25">
-        <v>2E-3</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
-      </c>
-      <c r="F26">
-        <v>1E-3</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>567408321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>123804765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>364058271</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>123804765</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>181357</v>
-      </c>
-      <c r="E34">
-        <v>24979</v>
-      </c>
-      <c r="F34">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35">
-        <v>181377</v>
-      </c>
-      <c r="E35">
-        <v>25060</v>
-      </c>
-      <c r="F35">
-        <v>249.753998</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>108652</v>
-      </c>
-      <c r="E36">
-        <v>26049</v>
-      </c>
-      <c r="F36">
-        <v>161.56500199999999</v>
-      </c>
-      <c r="G36">
-        <v>353</v>
-      </c>
-      <c r="H36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>1642</v>
+        <v>650069</v>
       </c>
       <c r="E37">
-        <v>920</v>
+        <v>438787</v>
       </c>
       <c r="F37">
-        <v>0.06</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1581,173 +1510,1125 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>74833</v>
+      </c>
+      <c r="E38">
+        <v>21827</v>
+      </c>
+      <c r="F38">
+        <v>0.114</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>-5</v>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>1036353</v>
+      </c>
+      <c r="E39">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>76391</v>
+      </c>
+      <c r="E40">
+        <v>22312</v>
+      </c>
+      <c r="F40">
+        <v>64.523003000000003</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41">
-        <v>463508721</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>4926</v>
+      </c>
+      <c r="E41">
+        <v>2938</v>
+      </c>
+      <c r="F41">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="E41">
-        <v>123804765</v>
+      <c r="H41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>184</v>
+      </c>
+      <c r="E42">
+        <v>125</v>
+      </c>
+      <c r="F42">
+        <v>2E-3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
+      <c r="A43" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>178437</v>
-      </c>
-      <c r="E45">
-        <v>24979</v>
-      </c>
-      <c r="F45">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>179608</v>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>281463075</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>25060</v>
-      </c>
-      <c r="F46">
-        <v>209.55299400000001</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
+        <v>123804765</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>3012</v>
+      </c>
+      <c r="E50">
+        <v>2053</v>
+      </c>
+      <c r="F50">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>1681</v>
+      </c>
+      <c r="E51">
+        <v>965</v>
+      </c>
+      <c r="F51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>5719</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>1140</v>
+      </c>
+      <c r="E53">
+        <v>768</v>
+      </c>
+      <c r="F53">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>93</v>
+      </c>
+      <c r="E54">
+        <v>72</v>
+      </c>
+      <c r="F54">
+        <v>2E-3</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>22</v>
+      </c>
+      <c r="F55">
+        <v>1E-3</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>567408321</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>181357</v>
+      </c>
+      <c r="E63">
+        <v>24979</v>
+      </c>
+      <c r="F63">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>179324106</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>271.55499300000002</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>181377</v>
+      </c>
+      <c r="E65">
+        <v>25060</v>
+      </c>
+      <c r="F65">
+        <v>158.40299999999999</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>108652</v>
+      </c>
+      <c r="E66">
+        <v>26049</v>
+      </c>
+      <c r="F66">
+        <v>121.53600299999999</v>
+      </c>
+      <c r="G66">
+        <v>353</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>1642</v>
+      </c>
+      <c r="E67">
+        <v>920</v>
+      </c>
+      <c r="F67">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G67">
+        <v>23</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71">
+        <v>463508721</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75">
+        <v>178437</v>
+      </c>
+      <c r="E75">
+        <v>24979</v>
+      </c>
+      <c r="F75">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>28</v>
+      </c>
+      <c r="D76">
+        <v>59475564</v>
+      </c>
+      <c r="E76">
+        <v>28</v>
+      </c>
+      <c r="F76">
+        <v>87.769997000000004</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>28</v>
+      </c>
+      <c r="D77">
+        <v>179608</v>
+      </c>
+      <c r="E77">
+        <v>25060</v>
+      </c>
+      <c r="F77">
+        <v>157.63699299999999</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>28</v>
+      </c>
+      <c r="D78">
+        <v>68169</v>
+      </c>
+      <c r="E78">
+        <v>21799</v>
+      </c>
+      <c r="F78">
+        <v>55.283999999999999</v>
+      </c>
+      <c r="G78">
+        <v>162</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>3459</v>
+      </c>
+      <c r="E79">
+        <v>1972</v>
+      </c>
+      <c r="F79">
+        <v>0.246</v>
+      </c>
+      <c r="G79">
+        <v>69</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>471506238</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
         <v>20</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E89" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>181441</v>
+      </c>
+      <c r="D90">
+        <v>24979</v>
+      </c>
+      <c r="E90">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
         <v>28</v>
       </c>
-      <c r="D47">
-        <v>68169</v>
-      </c>
-      <c r="E47">
-        <v>21799</v>
-      </c>
-      <c r="F47">
-        <v>70.128997999999996</v>
-      </c>
-      <c r="G47">
-        <v>162</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
         <v>23</v>
       </c>
-      <c r="C48">
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>181439</v>
+      </c>
+      <c r="D95">
+        <v>25060</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
         <v>28</v>
       </c>
-      <c r="D48">
-        <v>3459</v>
-      </c>
-      <c r="E48">
-        <v>1972</v>
-      </c>
-      <c r="F48">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G48">
-        <v>69</v>
-      </c>
-      <c r="H48">
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>181439</v>
+      </c>
+      <c r="D100">
+        <v>25187</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>29</v>
+      </c>
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>181439</v>
+      </c>
+      <c r="D105">
+        <v>20025</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
         <v>0</v>
       </c>
     </row>

--- a/partialResults.xlsx
+++ b/partialResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1burg\Desktop\AIAssignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E1AF34-6C8D-4E6B-AA93-6047A8BCF466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65DCB2-2190-4B77-84EC-BB3CEB47AF43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="49">
   <si>
     <t>====================================================================================================================================================</t>
   </si>
@@ -161,12 +161,18 @@
   </si>
   <si>
     <t>INIT_STATE_#5:</t>
+  </si>
+  <si>
+    <t>Crashed due to memory</t>
+  </si>
+  <si>
+    <t>uniformcost_expandedlist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,321 +1116,354 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>181441</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>24050</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>29</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>181439</v>
-      </c>
-      <c r="D19">
-        <v>24145</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>181439</v>
+      </c>
+      <c r="D21">
+        <v>24145</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J22" t="s">
         <v>29</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K22" t="s">
         <v>22</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>181439</v>
-      </c>
-      <c r="D24">
-        <v>24067</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>181439</v>
+      </c>
+      <c r="D26">
+        <v>24067</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>32</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>29</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>22</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>181433</v>
-      </c>
-      <c r="D29">
-        <v>18978</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
       <c r="B31">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>181433</v>
+      </c>
+      <c r="D31">
+        <v>18978</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1434,19 +1473,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>364058271</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>123804765</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,26 +1485,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>8</v>
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>364058271</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>123804765</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,75 +1507,51 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>650069</v>
-      </c>
-      <c r="E37">
-        <v>438787</v>
-      </c>
-      <c r="F37">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>74833</v>
-      </c>
-      <c r="E38">
-        <v>21827</v>
-      </c>
-      <c r="F38">
-        <v>0.114</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>21</v>
       </c>
       <c r="D39">
-        <v>1036353</v>
+        <v>650069</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>438787</v>
       </c>
       <c r="F39">
-        <v>1.2989999999999999</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1562,22 +1562,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40">
-        <v>76391</v>
+        <v>74833</v>
       </c>
       <c r="E40">
-        <v>22312</v>
+        <v>21827</v>
       </c>
       <c r="F40">
-        <v>64.523003000000003</v>
+        <v>0.114</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1588,25 +1588,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>21</v>
       </c>
       <c r="D41">
-        <v>4926</v>
+        <v>1036353</v>
       </c>
       <c r="E41">
-        <v>2938</v>
+        <v>21</v>
       </c>
       <c r="F41">
-        <v>0.52700000000000002</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1614,25 +1614,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>21</v>
       </c>
       <c r="D42">
-        <v>184</v>
+        <v>76391</v>
       </c>
       <c r="E42">
-        <v>125</v>
+        <v>22312</v>
       </c>
       <c r="F42">
-        <v>2E-3</v>
+        <v>64.523003000000003</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1640,15 +1640,54 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>4926</v>
+      </c>
+      <c r="E43">
+        <v>2938</v>
+      </c>
+      <c r="F43">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>-3</v>
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>184</v>
+      </c>
+      <c r="E44">
+        <v>125</v>
+      </c>
+      <c r="F44">
+        <v>2E-3</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,19 +1697,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>281463075</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>123804765</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,26 +1709,20 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>8</v>
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>281463075</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>123804765</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,75 +1731,51 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
       <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
         <v>12</v>
       </c>
-      <c r="D50">
-        <v>3012</v>
-      </c>
-      <c r="E50">
-        <v>2053</v>
-      </c>
-      <c r="F50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <v>1681</v>
-      </c>
-      <c r="E51">
-        <v>965</v>
-      </c>
-      <c r="F51">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>5719</v>
+        <v>3012</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>2053</v>
       </c>
       <c r="F52">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1786,22 +1786,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>1140</v>
+        <v>1681</v>
       </c>
       <c r="E53">
-        <v>768</v>
+        <v>965</v>
       </c>
       <c r="F53">
-        <v>3.3000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C54">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>93</v>
+        <v>5719</v>
       </c>
       <c r="E54">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1838,22 +1838,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>1140</v>
       </c>
       <c r="E55">
-        <v>22</v>
+        <v>768</v>
       </c>
       <c r="F55">
-        <v>1E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1864,15 +1864,54 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>93</v>
+      </c>
+      <c r="E56">
+        <v>72</v>
+      </c>
+      <c r="F56">
+        <v>2E-3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>-4</v>
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>1E-3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,19 +1921,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>567408321</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>123804765</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,26 +1933,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>8</v>
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61">
+        <v>567408321</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>123804765</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1931,104 +1955,65 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
       <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>181357</v>
-      </c>
-      <c r="E63">
-        <v>24979</v>
-      </c>
-      <c r="F63">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>179324106</v>
-      </c>
-      <c r="E64">
-        <v>30</v>
-      </c>
-      <c r="F64">
-        <v>271.55499300000002</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>181377</v>
-      </c>
-      <c r="E65">
-        <v>25060</v>
-      </c>
-      <c r="F65">
-        <v>158.40299999999999</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>30</v>
       </c>
       <c r="D66">
-        <v>108652</v>
+        <v>181357</v>
       </c>
       <c r="E66">
-        <v>26049</v>
+        <v>24979</v>
       </c>
       <c r="F66">
-        <v>121.53600299999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G66">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2036,25 +2021,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C67">
         <v>30</v>
       </c>
       <c r="D67">
-        <v>1642</v>
+        <v>179324106</v>
       </c>
       <c r="E67">
-        <v>920</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>5.5E-2</v>
+        <v>271.55499300000002</v>
       </c>
       <c r="G67">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2062,197 +2047,182 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>181377</v>
+      </c>
+      <c r="E68">
+        <v>25060</v>
+      </c>
+      <c r="F68">
+        <v>158.40299999999999</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>-5</v>
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>108652</v>
+      </c>
+      <c r="E69">
+        <v>26049</v>
+      </c>
+      <c r="F69">
+        <v>121.53600299999999</v>
+      </c>
+      <c r="G69">
+        <v>353</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>1642</v>
+      </c>
+      <c r="E70">
+        <v>920</v>
+      </c>
+      <c r="F70">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G70">
+        <v>23</v>
+      </c>
+      <c r="H70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71">
-        <v>463508721</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>123804765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>-5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
+      <c r="A73" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>463508721</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>123804765</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>28</v>
-      </c>
-      <c r="D75">
-        <v>178437</v>
-      </c>
-      <c r="E75">
-        <v>24979</v>
-      </c>
-      <c r="F75">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>37</v>
-      </c>
       <c r="B76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76">
-        <v>28</v>
-      </c>
-      <c r="D76">
-        <v>59475564</v>
-      </c>
-      <c r="E76">
-        <v>28</v>
-      </c>
-      <c r="F76">
-        <v>87.769997000000004</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77">
-        <v>28</v>
-      </c>
-      <c r="D77">
-        <v>179608</v>
-      </c>
-      <c r="E77">
-        <v>25060</v>
-      </c>
-      <c r="F77">
-        <v>157.63699299999999</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78">
-        <v>28</v>
-      </c>
-      <c r="D78">
-        <v>68169</v>
-      </c>
-      <c r="E78">
-        <v>21799</v>
-      </c>
-      <c r="F78">
-        <v>55.283999999999999</v>
-      </c>
-      <c r="G78">
-        <v>162</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>28</v>
       </c>
       <c r="D79">
-        <v>3459</v>
+        <v>178437</v>
       </c>
       <c r="E79">
-        <v>1972</v>
+        <v>24979</v>
       </c>
       <c r="F79">
-        <v>0.246</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G79">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2260,37 +2230,106 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>59475564</v>
+      </c>
+      <c r="E80">
+        <v>28</v>
+      </c>
+      <c r="F80">
+        <v>87.769997000000004</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81">
-        <v>-6</v>
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>179608</v>
+      </c>
+      <c r="E81">
+        <v>25060</v>
+      </c>
+      <c r="F81">
+        <v>157.63699299999999</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>68169</v>
+      </c>
+      <c r="E82">
+        <v>21799</v>
+      </c>
+      <c r="F82">
+        <v>55.283999999999999</v>
+      </c>
+      <c r="G82">
+        <v>162</v>
+      </c>
+      <c r="H82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83">
-        <v>471506238</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>3459</v>
       </c>
       <c r="E83">
-        <v>123804765</v>
+        <v>1972</v>
+      </c>
+      <c r="F83">
+        <v>0.246</v>
+      </c>
+      <c r="G83">
+        <v>69</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,26 +2338,11 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>-6</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -2328,94 +2352,71 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B87">
+        <v>471506238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>123804765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>17</v>
-      </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>181441</v>
-      </c>
-      <c r="D90">
-        <v>24979</v>
-      </c>
-      <c r="E90">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="A90" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
-      </c>
-      <c r="H91" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" t="s">
-        <v>32</v>
-      </c>
-      <c r="J91" t="s">
-        <v>29</v>
-      </c>
-      <c r="K91" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -2449,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>181439</v>
+        <v>181441</v>
       </c>
       <c r="D95">
-        <v>25060</v>
+        <v>24979</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2502,133 +2503,252 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>17</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>18</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>19</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>20</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>21</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>22</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>23</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
         <v>181439</v>
       </c>
-      <c r="D100">
+      <c r="D101">
+        <v>25060</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>181439</v>
+      </c>
+      <c r="D106">
         <v>25187</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>25</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B107" t="s">
         <v>26</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C107" t="s">
         <v>27</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D107" t="s">
         <v>28</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E107" t="s">
         <v>29</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F107" t="s">
         <v>22</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G107" t="s">
         <v>30</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H107" t="s">
         <v>31</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I107" t="s">
         <v>32</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J107" t="s">
         <v>29</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K107" t="s">
         <v>22</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L107" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>17</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B110" t="s">
         <v>18</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D110" t="s">
         <v>20</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E110" t="s">
         <v>21</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F110" t="s">
         <v>22</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G110" t="s">
         <v>23</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
         <v>181439</v>
       </c>
-      <c r="D105">
+      <c r="D111">
         <v>20025</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
         <v>0</v>
       </c>
     </row>
